--- a/КТП/КТП 56 школа/Заготовки к КТП для Школы 56.xlsx
+++ b/КТП/КТП 56 школа/Заготовки к КТП для Школы 56.xlsx
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Дни недели" sheetId="3" r:id="rId3"/>
+    <sheet name="УИД" sheetId="4" r:id="rId4"/>
+    <sheet name="Лаборатория" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Дни недели'!$A$1:$B$315</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$74</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист3!$A$1:$B$315</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Лист4!$A$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">УИД!$A$1:$E$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="182">
   <si>
     <t>№</t>
   </si>
@@ -394,20 +395,197 @@
     <t>Множественная регрессия. Применение множественной регрессии к материалу</t>
   </si>
   <si>
-    <t>Применение дисперсионного анализа к материалу работы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дисперсионный анализ. </t>
-  </si>
-  <si>
     <t>Итоговое занятие. Семинар по презентации навыков создания отчетных документов</t>
+  </si>
+  <si>
+    <t>№ занятия</t>
+  </si>
+  <si>
+    <t>Тема занятия</t>
+  </si>
+  <si>
+    <t>Кол-во часов</t>
+  </si>
+  <si>
+    <t>Дата проведения</t>
+  </si>
+  <si>
+    <t>Дапа по факту</t>
+  </si>
+  <si>
+    <t>1.  </t>
+  </si>
+  <si>
+    <t>Формирование групп (с использованием дистанционных образовательных технологий.)</t>
+  </si>
+  <si>
+    <t>2.  </t>
+  </si>
+  <si>
+    <t>Знакомство с программой (с использованием дистанционных образовательных технологий)</t>
+  </si>
+  <si>
+    <t>3.  </t>
+  </si>
+  <si>
+    <t>Цель и задачи исследовательской деятельности</t>
+  </si>
+  <si>
+    <t>4.  </t>
+  </si>
+  <si>
+    <t>Современный информационный поиск</t>
+  </si>
+  <si>
+    <t>5.  </t>
+  </si>
+  <si>
+    <t>Поиск литературы по теме исследования</t>
+  </si>
+  <si>
+    <t>6.  </t>
+  </si>
+  <si>
+    <t>Определение темы исследования</t>
+  </si>
+  <si>
+    <t>7.  </t>
+  </si>
+  <si>
+    <t>Структура исследовательской работы</t>
+  </si>
+  <si>
+    <t>8.  </t>
+  </si>
+  <si>
+    <t>Защита темы исследования</t>
+  </si>
+  <si>
+    <t>9.  </t>
+  </si>
+  <si>
+    <t>10.  </t>
+  </si>
+  <si>
+    <t>Консультации по тематике работы</t>
+  </si>
+  <si>
+    <t>11.  </t>
+  </si>
+  <si>
+    <t>12.  </t>
+  </si>
+  <si>
+    <t>13.  </t>
+  </si>
+  <si>
+    <t>14.  </t>
+  </si>
+  <si>
+    <t>15.  </t>
+  </si>
+  <si>
+    <t>Обсуждение предварительных результатов исследования</t>
+  </si>
+  <si>
+    <t>16.  </t>
+  </si>
+  <si>
+    <t>17.  </t>
+  </si>
+  <si>
+    <t>18.  </t>
+  </si>
+  <si>
+    <t>19.  </t>
+  </si>
+  <si>
+    <t>Представление результатов исследования</t>
+  </si>
+  <si>
+    <t>20.  </t>
+  </si>
+  <si>
+    <t>Процедура предзащиты исследования</t>
+  </si>
+  <si>
+    <t>21.  </t>
+  </si>
+  <si>
+    <t>22.  </t>
+  </si>
+  <si>
+    <t>Тезисы исследования</t>
+  </si>
+  <si>
+    <t>23.  </t>
+  </si>
+  <si>
+    <t>Подготовка к конференции. Презентация и выступление</t>
+  </si>
+  <si>
+    <t>24.  </t>
+  </si>
+  <si>
+    <t>Подготовка к конференции. Оформление работы.</t>
+  </si>
+  <si>
+    <t>25.  </t>
+  </si>
+  <si>
+    <t>Участие в конференции (секционные заседания)</t>
+  </si>
+  <si>
+    <t>26.  </t>
+  </si>
+  <si>
+    <t>Участие в конференции (Пленарное заседание)</t>
+  </si>
+  <si>
+    <t>27.  </t>
+  </si>
+  <si>
+    <t>Анализ результатов участия в конференции.</t>
+  </si>
+  <si>
+    <t>28.  </t>
+  </si>
+  <si>
+    <t>Анализ результатов участия в конференции</t>
+  </si>
+  <si>
+    <t>29.  </t>
+  </si>
+  <si>
+    <t>Обсуждение результатов конференции</t>
+  </si>
+  <si>
+    <t>30.  </t>
+  </si>
+  <si>
+    <t>31.  </t>
+  </si>
+  <si>
+    <t>Подведение итогов, анализ выполненной работы, достигнутых результатов (успехов и неудач) и причины этого.</t>
+  </si>
+  <si>
+    <t>32.  </t>
+  </si>
+  <si>
+    <t>33.  </t>
+  </si>
+  <si>
+    <t>Планирование на следующий учебный год.</t>
+  </si>
+  <si>
+    <t>34.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +601,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -432,7 +618,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -449,11 +635,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -473,6 +674,19 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3233,11 +3447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:B315"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A296"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3250,55 +3463,55 @@
         <v>44075</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44076</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44077</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44078</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44079</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44080</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44081</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3306,55 +3519,55 @@
         <v>44082</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44083</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44084</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44085</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44086</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44087</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44088</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3362,55 +3575,55 @@
         <v>44089</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44090</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44091</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44092</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44093</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44094</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44095</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3418,55 +3631,55 @@
         <v>44096</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44097</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44098</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44099</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44100</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44101</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44102</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3474,55 +3687,55 @@
         <v>44103</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44104</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44105</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44106</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44107</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44108</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44109</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3530,55 +3743,55 @@
         <v>44110</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44111</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44112</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44113</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44114</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44115</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44116</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3586,55 +3799,55 @@
         <v>44117</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44118</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44119</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44120</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44121</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44122</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44123</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3642,55 +3855,55 @@
         <v>44124</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44125</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44126</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44127</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44128</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44129</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44130</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3698,55 +3911,55 @@
         <v>44131</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44132</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44133</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44134</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44135</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44136</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44137</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3754,55 +3967,55 @@
         <v>44138</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44139</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44140</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44141</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44142</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44143</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44144</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3810,55 +4023,55 @@
         <v>44145</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44146</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44147</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44148</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44149</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44150</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44151</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,55 +4079,55 @@
         <v>44152</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44153</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44154</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44155</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44156</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44157</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44158</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,55 +4135,55 @@
         <v>44159</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44160</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44161</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44162</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44163</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44164</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44165</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,55 +4191,55 @@
         <v>44166</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44167</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44168</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44169</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44170</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44171</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44172</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -4034,55 +4247,55 @@
         <v>44173</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44174</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44175</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44176</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44177</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44178</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44179</v>
       </c>
       <c r="B106" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -4090,55 +4303,55 @@
         <v>44180</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44181</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44182</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44183</v>
       </c>
       <c r="B110" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44184</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44185</v>
       </c>
       <c r="B112" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44186</v>
       </c>
       <c r="B113" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -4146,55 +4359,55 @@
         <v>44187</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44188</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44189</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44190</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44191</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44192</v>
       </c>
       <c r="B119" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44193</v>
       </c>
       <c r="B120" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -4202,55 +4415,55 @@
         <v>44194</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44195</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44196</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44197</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44198</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44199</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44200</v>
       </c>
       <c r="B127" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -4258,55 +4471,55 @@
         <v>44201</v>
       </c>
       <c r="B128" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44202</v>
       </c>
       <c r="B129" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44203</v>
       </c>
       <c r="B130" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44204</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44205</v>
       </c>
       <c r="B132" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44206</v>
       </c>
       <c r="B133" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44207</v>
       </c>
       <c r="B134" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -4314,55 +4527,55 @@
         <v>44208</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44209</v>
       </c>
       <c r="B136" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44210</v>
       </c>
       <c r="B137" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44211</v>
       </c>
       <c r="B138" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44212</v>
       </c>
       <c r="B139" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44213</v>
       </c>
       <c r="B140" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44214</v>
       </c>
       <c r="B141" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -4370,55 +4583,55 @@
         <v>44215</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44216</v>
       </c>
       <c r="B143" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44217</v>
       </c>
       <c r="B144" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44218</v>
       </c>
       <c r="B145" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44219</v>
       </c>
       <c r="B146" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44220</v>
       </c>
       <c r="B147" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44221</v>
       </c>
       <c r="B148" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -4426,55 +4639,55 @@
         <v>44222</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>44223</v>
       </c>
       <c r="B150" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>44224</v>
       </c>
       <c r="B151" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>44225</v>
       </c>
       <c r="B152" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>44226</v>
       </c>
       <c r="B153" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>44227</v>
       </c>
       <c r="B154" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>44228</v>
       </c>
       <c r="B155" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -4482,55 +4695,55 @@
         <v>44229</v>
       </c>
       <c r="B156" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>44230</v>
       </c>
       <c r="B157" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>44231</v>
       </c>
       <c r="B158" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>44232</v>
       </c>
       <c r="B159" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>44233</v>
       </c>
       <c r="B160" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>44234</v>
       </c>
       <c r="B161" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>44235</v>
       </c>
       <c r="B162" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4538,55 +4751,55 @@
         <v>44236</v>
       </c>
       <c r="B163" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>44237</v>
       </c>
       <c r="B164" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>44238</v>
       </c>
       <c r="B165" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>44239</v>
       </c>
       <c r="B166" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>44240</v>
       </c>
       <c r="B167" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>44241</v>
       </c>
       <c r="B168" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>44242</v>
       </c>
       <c r="B169" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4594,55 +4807,55 @@
         <v>44243</v>
       </c>
       <c r="B170" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>44244</v>
       </c>
       <c r="B171" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>44245</v>
       </c>
       <c r="B172" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>44246</v>
       </c>
       <c r="B173" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>44247</v>
       </c>
       <c r="B174" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>44248</v>
       </c>
       <c r="B175" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>44249</v>
       </c>
       <c r="B176" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4650,55 +4863,55 @@
         <v>44250</v>
       </c>
       <c r="B177" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>44251</v>
       </c>
       <c r="B178" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>44252</v>
       </c>
       <c r="B179" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>44253</v>
       </c>
       <c r="B180" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>44254</v>
       </c>
       <c r="B181" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>44255</v>
       </c>
       <c r="B182" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>44256</v>
       </c>
       <c r="B183" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4706,55 +4919,55 @@
         <v>44257</v>
       </c>
       <c r="B184" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>44258</v>
       </c>
       <c r="B185" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>44259</v>
       </c>
       <c r="B186" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>44260</v>
       </c>
       <c r="B187" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>44261</v>
       </c>
       <c r="B188" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>44262</v>
       </c>
       <c r="B189" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>44263</v>
       </c>
       <c r="B190" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4762,55 +4975,55 @@
         <v>44264</v>
       </c>
       <c r="B191" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>44265</v>
       </c>
       <c r="B192" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>44266</v>
       </c>
       <c r="B193" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>44267</v>
       </c>
       <c r="B194" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>44268</v>
       </c>
       <c r="B195" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>44269</v>
       </c>
       <c r="B196" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>44270</v>
       </c>
       <c r="B197" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4818,55 +5031,55 @@
         <v>44271</v>
       </c>
       <c r="B198" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>44272</v>
       </c>
       <c r="B199" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>44273</v>
       </c>
       <c r="B200" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>44274</v>
       </c>
       <c r="B201" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>44275</v>
       </c>
       <c r="B202" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>44276</v>
       </c>
       <c r="B203" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>44277</v>
       </c>
       <c r="B204" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4874,55 +5087,55 @@
         <v>44278</v>
       </c>
       <c r="B205" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>44279</v>
       </c>
       <c r="B206" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>44280</v>
       </c>
       <c r="B207" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>44281</v>
       </c>
       <c r="B208" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>44282</v>
       </c>
       <c r="B209" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>44283</v>
       </c>
       <c r="B210" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>44284</v>
       </c>
       <c r="B211" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4930,55 +5143,55 @@
         <v>44285</v>
       </c>
       <c r="B212" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>44286</v>
       </c>
       <c r="B213" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>44287</v>
       </c>
       <c r="B214" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>44288</v>
       </c>
       <c r="B215" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>44289</v>
       </c>
       <c r="B216" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>44290</v>
       </c>
       <c r="B217" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>44291</v>
       </c>
       <c r="B218" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4986,55 +5199,55 @@
         <v>44292</v>
       </c>
       <c r="B219" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>44293</v>
       </c>
       <c r="B220" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>44294</v>
       </c>
       <c r="B221" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>44295</v>
       </c>
       <c r="B222" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>44296</v>
       </c>
       <c r="B223" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>44297</v>
       </c>
       <c r="B224" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>44298</v>
       </c>
       <c r="B225" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -5042,55 +5255,55 @@
         <v>44299</v>
       </c>
       <c r="B226" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>44300</v>
       </c>
       <c r="B227" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>44301</v>
       </c>
       <c r="B228" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>44302</v>
       </c>
       <c r="B229" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>44303</v>
       </c>
       <c r="B230" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>44304</v>
       </c>
       <c r="B231" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>44305</v>
       </c>
       <c r="B232" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -5098,55 +5311,55 @@
         <v>44306</v>
       </c>
       <c r="B233" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>44307</v>
       </c>
       <c r="B234" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>44308</v>
       </c>
       <c r="B235" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>44309</v>
       </c>
       <c r="B236" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>44310</v>
       </c>
       <c r="B237" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>44311</v>
       </c>
       <c r="B238" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>44312</v>
       </c>
       <c r="B239" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -5154,55 +5367,55 @@
         <v>44313</v>
       </c>
       <c r="B240" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>44314</v>
       </c>
       <c r="B241" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>44315</v>
       </c>
       <c r="B242" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>44316</v>
       </c>
       <c r="B243" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>44317</v>
       </c>
       <c r="B244" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>44318</v>
       </c>
       <c r="B245" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>44319</v>
       </c>
       <c r="B246" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -5210,55 +5423,55 @@
         <v>44320</v>
       </c>
       <c r="B247" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>44321</v>
       </c>
       <c r="B248" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>44322</v>
       </c>
       <c r="B249" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>44323</v>
       </c>
       <c r="B250" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>44324</v>
       </c>
       <c r="B251" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>44325</v>
       </c>
       <c r="B252" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>44326</v>
       </c>
       <c r="B253" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -5266,55 +5479,55 @@
         <v>44327</v>
       </c>
       <c r="B254" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>44328</v>
       </c>
       <c r="B255" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>44329</v>
       </c>
       <c r="B256" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>44330</v>
       </c>
       <c r="B257" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>44331</v>
       </c>
       <c r="B258" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>44332</v>
       </c>
       <c r="B259" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>44333</v>
       </c>
       <c r="B260" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -5322,55 +5535,55 @@
         <v>44334</v>
       </c>
       <c r="B261" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>44335</v>
       </c>
       <c r="B262" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>44336</v>
       </c>
       <c r="B263" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>44337</v>
       </c>
       <c r="B264" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>44338</v>
       </c>
       <c r="B265" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>44339</v>
       </c>
       <c r="B266" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>44340</v>
       </c>
       <c r="B267" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -5378,55 +5591,55 @@
         <v>44341</v>
       </c>
       <c r="B268" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>44342</v>
       </c>
       <c r="B269" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>44343</v>
       </c>
       <c r="B270" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>44344</v>
       </c>
       <c r="B271" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>44345</v>
       </c>
       <c r="B272" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>44346</v>
       </c>
       <c r="B273" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>44347</v>
       </c>
       <c r="B274" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -5434,55 +5647,55 @@
         <v>44348</v>
       </c>
       <c r="B275" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>44349</v>
       </c>
       <c r="B276" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>44350</v>
       </c>
       <c r="B277" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>44351</v>
       </c>
       <c r="B278" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>44352</v>
       </c>
       <c r="B279" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>44353</v>
       </c>
       <c r="B280" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>44354</v>
       </c>
       <c r="B281" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -5490,55 +5703,55 @@
         <v>44355</v>
       </c>
       <c r="B282" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>44356</v>
       </c>
       <c r="B283" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>44357</v>
       </c>
       <c r="B284" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>44358</v>
       </c>
       <c r="B285" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>44359</v>
       </c>
       <c r="B286" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>44360</v>
       </c>
       <c r="B287" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>44361</v>
       </c>
       <c r="B288" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -5546,55 +5759,55 @@
         <v>44362</v>
       </c>
       <c r="B289" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>44363</v>
       </c>
       <c r="B290" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>44364</v>
       </c>
       <c r="B291" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>44365</v>
       </c>
       <c r="B292" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>44366</v>
       </c>
       <c r="B293" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>44367</v>
       </c>
       <c r="B294" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>44368</v>
       </c>
       <c r="B295" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -5602,138 +5815,128 @@
         <v>44369</v>
       </c>
       <c r="B296" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>44370</v>
       </c>
       <c r="B297" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>44371</v>
       </c>
-      <c r="B298" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>44372</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>44373</v>
       </c>
     </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>44374</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>44375</v>
       </c>
     </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>44376</v>
       </c>
     </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>44377</v>
       </c>
     </row>
-    <row r="305" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>44378</v>
       </c>
     </row>
-    <row r="306" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>44379</v>
       </c>
     </row>
-    <row r="307" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>44380</v>
       </c>
     </row>
-    <row r="308" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>44381</v>
       </c>
     </row>
-    <row r="309" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>44382</v>
       </c>
     </row>
-    <row r="310" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>44383</v>
       </c>
     </row>
-    <row r="311" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>44384</v>
       </c>
     </row>
-    <row r="312" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>44385</v>
       </c>
     </row>
-    <row r="313" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>44386</v>
       </c>
     </row>
-    <row r="314" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>44387</v>
       </c>
     </row>
-    <row r="315" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>44388</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B315">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="вторник"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B315"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C2:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection sqref="A1:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5744,19 +5947,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5764,20 +5961,14 @@
         <v>87</v>
       </c>
       <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
         <v>44075</v>
       </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5785,756 +5976,1065 @@
         <v>88</v>
       </c>
       <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>44082</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>44089</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <v>44096</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
         <v>44103</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
         <v>44110</v>
       </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
         <v>44117</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
         <v>44124</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44131</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44145</v>
+      </c>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44138</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44152</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44145</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44159</v>
+      </c>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44152</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44166</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44159</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44173</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>44166</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>44173</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44187</v>
+      </c>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>44180</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44194</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>44187</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44201</v>
+      </c>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>44194</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44208</v>
+      </c>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>44201</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44215</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>44208</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44222</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>44215</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44229</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>44222</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44236</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>44229</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44243</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <v>44236</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44250</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>44243</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44257</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>44250</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44264</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>44257</v>
-      </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44271</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>44264</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44278</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>44271</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44285</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>44278</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44292</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>44285</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44299</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>44292</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44306</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>44299</v>
-      </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44313</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
-        <v>44306</v>
-      </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>42</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>44313</v>
-      </c>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>43</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
         <v>44320</v>
       </c>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="2"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G36"/>
+  <autoFilter ref="A1:E34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>44075</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>44082</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>44089</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>44096</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>44103</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>44110</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>44117</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>44124</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>44145</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>44152</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>44159</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>44166</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>44173</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>44180</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>44187</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>44194</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>44201</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>44208</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>44215</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>44222</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>44229</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>44236</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>44243</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="12">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>44250</v>
+      </c>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>44257</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>44264</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="12">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>44271</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="12">
+        <v>2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>44278</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="12">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>44285</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="12">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>44292</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>44299</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="12">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8">
+        <v>44306</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="12">
+        <v>2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>44313</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="12">
+        <v>2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>44320</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>